--- a/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 20,92</t>
+          <t>0,08; 20,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>2,69; 28,71</t>
+          <t>4,76; 29,16</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,82; 25,18</t>
+          <t>2,47; 25,25</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,57; 12,34</t>
+          <t>-0,77; 12,2</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,64; 227,39</t>
+          <t>-4,36; 225,77</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>8,24; 143,61</t>
+          <t>13,6; 145,31</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>10,67; 182,27</t>
+          <t>7,15; 180,19</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-19,61; 337,04</t>
+          <t>-15,52; 315,62</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,83; 17,45</t>
+          <t>6,88; 17,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,11; 19,88</t>
+          <t>8,24; 19,88</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,52; 8,1</t>
+          <t>-2,59; 8,13</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,91; 6,93</t>
+          <t>-1,18; 6,84</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>26,82; 89,92</t>
+          <t>28,27; 92,95</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>25,39; 76,78</t>
+          <t>24,69; 75,07</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,66; 32,23</t>
+          <t>-8,49; 35,03</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-10,63; 54,03</t>
+          <t>-7,28; 53,86</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,26; 14,64</t>
+          <t>6,74; 14,83</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,73; 18,31</t>
+          <t>9,95; 18,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,31; 16,15</t>
+          <t>8,47; 16,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,55; 11,93</t>
+          <t>4,22; 11,81</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>25,75; 75,88</t>
+          <t>27,93; 71,84</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,18; 64,28</t>
+          <t>30,16; 67,2</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>26,51; 70,78</t>
+          <t>31,38; 71,41</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>25,83; 92,47</t>
+          <t>23,96; 91,17</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,38; 14,71</t>
+          <t>5,07; 14,45</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,5; 21,15</t>
+          <t>10,79; 20,94</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,59; 15,85</t>
+          <t>6,33; 16,37</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,62; 41,07</t>
+          <t>3,08; 38,26</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>24,49; 85,4</t>
+          <t>23,89; 84,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>36,57; 78,6</t>
+          <t>33,65; 79,97</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,78; 72,07</t>
+          <t>24,11; 74,78</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>27,13; 402,5</t>
+          <t>22,5; 345,57</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,42; 12,91</t>
+          <t>5,4; 12,88</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,85; 15,25</t>
+          <t>6,63; 15,25</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,64; 12,38</t>
+          <t>4,59; 12,79</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,78; 5,26</t>
+          <t>-0,7; 5,19</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,58; 75,38</t>
+          <t>25,47; 74,22</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>22,53; 59,88</t>
+          <t>21,95; 59,25</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,29; 64,01</t>
+          <t>20,18; 67,64</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,59; 52,28</t>
+          <t>-5,28; 50,18</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>7,99; 12,33</t>
+          <t>8,15; 12,42</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,4; 15,94</t>
+          <t>10,9; 15,87</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,01; 11,49</t>
+          <t>7,24; 11,68</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,92; 14,93</t>
+          <t>3,93; 15,88</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>37,29; 64,13</t>
+          <t>38,66; 65,08</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>37,35; 57,28</t>
+          <t>36,42; 56,87</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,35; 50,57</t>
+          <t>28,86; 51,8</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>27,72; 112,97</t>
+          <t>28,02; 123,85</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
@@ -566,7 +566,7 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
@@ -586,7 +586,7 @@
       </c>
       <c r="I2" s="3" t="inlineStr">
         <is>
-          <t>2015</t>
+          <t>2016</t>
         </is>
       </c>
       <c r="J2" s="3" t="inlineStr">
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Menos de 2</t>
+          <t>&lt;2.000hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -668,17 +668,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,08; 20,96</t>
+          <t>1,54; 21,33</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,76; 29,16</t>
+          <t>3,91; 28,93</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,47; 25,25</t>
+          <t>2,4; 24,98</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
@@ -688,17 +688,17 @@
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,36; 225,77</t>
+          <t>5,85; 252,5</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,6; 145,31</t>
+          <t>11,62; 141,32</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>7,15; 180,19</t>
+          <t>6,27; 172,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -710,7 +710,7 @@
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2/10</t>
+          <t>2-10.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -768,17 +768,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>6,88; 17,81</t>
+          <t>7,07; 17,43</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>8,24; 19,88</t>
+          <t>7,83; 19,44</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,59; 8,13</t>
+          <t>-2,79; 8,22</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
@@ -788,17 +788,17 @@
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>28,27; 92,95</t>
+          <t>29,43; 92,69</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,69; 75,07</t>
+          <t>24,41; 74,68</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-8,49; 35,03</t>
+          <t>-9,07; 33,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -810,7 +810,7 @@
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10/50</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -868,17 +868,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,74; 14,83</t>
+          <t>6,31; 14,05</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,95; 18,85</t>
+          <t>9,57; 18,28</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>8,47; 16,45</t>
+          <t>7,68; 15,75</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
@@ -888,17 +888,17 @@
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>27,93; 71,84</t>
+          <t>26,5; 72,5</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>30,16; 67,2</t>
+          <t>29,77; 64,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>31,38; 71,41</t>
+          <t>28,67; 69,93</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -910,7 +910,7 @@
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>mas de 50</t>
+          <t>&gt;50.000hab</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -968,17 +968,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>5,07; 14,45</t>
+          <t>4,82; 14,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10,79; 20,94</t>
+          <t>11,09; 21,29</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,33; 16,37</t>
+          <t>6,13; 16,11</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
@@ -988,17 +988,17 @@
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,89; 84,62</t>
+          <t>22,42; 85,1</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>33,65; 79,97</t>
+          <t>35,11; 78,96</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>24,11; 74,78</t>
+          <t>23,18; 74,59</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1068,17 +1068,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,4; 12,88</t>
+          <t>5,29; 12,84</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,63; 15,25</t>
+          <t>6,98; 15,67</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,59; 12,79</t>
+          <t>4,95; 12,99</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
@@ -1088,17 +1088,17 @@
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,47; 74,22</t>
+          <t>25,61; 74,99</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>21,95; 59,25</t>
+          <t>23,16; 59,97</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>20,18; 67,64</t>
+          <t>21,75; 67,92</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1168,17 +1168,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,42</t>
+          <t>8,15; 12,3</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>10,9; 15,87</t>
+          <t>11,03; 15,96</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,24; 11,68</t>
+          <t>7,22; 11,73</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1188,17 +1188,17 @@
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,66; 65,08</t>
+          <t>38,4; 64,97</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,42; 56,87</t>
+          <t>36,65; 57,17</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>28,86; 51,8</t>
+          <t>29,16; 51,47</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">

--- a/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal brecha" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Brecha de género" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -530,7 +530,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Cuidados por parte del entrevistado/a (hogares con personas que requieren dedicación o cuidados especiales)</t>
+          <t>Hogares con al menos un miembro que requiere cuidados habituales por la persona entrevistada</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,33</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>16,58</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>13,29</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5,96</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>83,26%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>61,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>69,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>86,04%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>1,54; 21,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>3,91; 28,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2,4; 24,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,77; 12,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>5,85; 252,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>11,62; 141,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>6,27; 172,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-15,52; 315,62</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>13,68</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>2,83</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>56,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>46,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>10,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>18,89%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>7,07; 17,43</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,83; 19,44</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,79; 8,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-1,18; 6,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>29,43; 92,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>24,41; 74,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-9,07; 33,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-7,28; 53,86</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,36</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>14,09</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>11,93</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>8,3</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>47,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>46,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>47,97%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>53,81%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>6,31; 14,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,57; 18,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>7,68; 15,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4,22; 11,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>26,5; 72,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,77; 64,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>28,67; 69,93</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>23,96; 91,17</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,23</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>11,28</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>14,92</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>49,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>55,19%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>47,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>117,73%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,82; 14,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,09; 21,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>6,13; 16,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,08; 38,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,42; 85,1</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>35,11; 78,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>23,18; 74,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>22,5; 345,57</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>9,16</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>11,15</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>8,82</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>2,39</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>48,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>41,41%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>5,29; 12,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>6,98; 15,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>4,95; 12,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,7; 5,19</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>25,61; 74,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>23,16; 59,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>21,75; 67,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-5,28; 50,18</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1120,42 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>10,18</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>13,67</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,42</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>6,95</t>
+          <t>0,0</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>50,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>46,73%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>39,56%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>51,66%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1168,42 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>8,15; 12,3</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>11,03; 15,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>7,22; 11,73</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>3,93; 15,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>38,4; 64,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>36,65; 57,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>29,16; 51,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>28,02; 123,85</t>
+          <t>—; —</t>
         </is>
       </c>
     </row>

--- a/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -610,7 +610,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>&lt;2.000hab</t>
+          <t>&lt;10.000 hab</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -620,42 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>10,66</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,34</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,57</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,2</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,6%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,24%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>25,48%</t>
         </is>
       </c>
     </row>
@@ -668,49 +668,49 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,84; 17,35</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,46; 19,74</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-6,57; 7,21</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,12; 5,36</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>10,31; 53,23</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>12,99; 47,69</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-13,55; 17,4</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-10,31; 78,03</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>2-10.000 hab</t>
+          <t>10-50.000 hab</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -720,42 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>11,0</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>13,17</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,49</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>29,2%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>26,77%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,78%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>100,04%</t>
         </is>
       </c>
     </row>
@@ -768,49 +768,49 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,44; 17,21</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>7,74; 18,87</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,92; 15,44</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>5,16; 13,2</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>13,86; 49,82</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>14,64; 41,01</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,28; 36,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>45,64; 273,92</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>10-50.000 hab</t>
+          <t>&gt;50.000 hab</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -820,42 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,52</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>15,61</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,86</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>24,17</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>20,83%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>30,2%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,34%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>384,22%</t>
         </is>
       </c>
     </row>
@@ -868,49 +868,49 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 13,81</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,01; 21,97</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,83; 15,53</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,83; 58,6</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,68; 42,66</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>16,38; 46,36</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,69; 37,96</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>58,8; 1612,21</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>&gt;50.000hab</t>
+          <t>Capitales</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -920,42 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,02</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,56</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,75</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,16</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>18,67%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>14,85%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>19,23%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,79%</t>
         </is>
       </c>
     </row>
@@ -968,49 +968,49 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,21; 12,95</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,51; 13,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,95; 14,16</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-1,27; 3,55</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,04; 37,27</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>2,67; 27,81</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>4,53; 38,43</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-15,19; 56,77</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>Capitales</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
@@ -1020,42 +1020,42 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>9,04</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>12,21</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>7,06</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>8,89</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,47%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>24,74%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>15,98%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>115,02%</t>
         </is>
       </c>
     </row>
@@ -1068,154 +1068,54 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>6,13; 12,35</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>9,08; 15,09</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,69; 10,01</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>3,43; 24,0</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>15,62; 34,79</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>17,68; 31,63</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>8,0; 23,76</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>40,8; 332,44</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="1" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="B14" s="3" t="inlineStr">
-        <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="D14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="E14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="F14" s="2" t="inlineStr">
-        <is>
-          <t>0,0</t>
-        </is>
-      </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="H14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="I14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="J14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n"/>
-      <c r="B15" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+      <c r="A14" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
@@ -1224,7 +1124,6 @@
     <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
+++ b/data/trans_bre/P2C_R-Habitat-trans_bre.xlsx
@@ -668,42 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>3,84; 17,35</t>
+          <t>4,39; 17,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,46; 19,74</t>
+          <t>6,9; 19,98</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-6,57; 7,21</t>
+          <t>-5,66; 7,82</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-1,12; 5,36</t>
+          <t>-1,26; 5,74</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>10,31; 53,23</t>
+          <t>11,47; 55,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>12,99; 47,69</t>
+          <t>14,51; 48,38</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-13,55; 17,4</t>
+          <t>-11,87; 18,58</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-10,31; 78,03</t>
+          <t>-11,39; 81,28</t>
         </is>
       </c>
     </row>
@@ -768,42 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,44; 17,21</t>
+          <t>5,29; 16,98</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>7,74; 18,87</t>
+          <t>8,31; 18,75</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>3,92; 15,44</t>
+          <t>3,74; 15,11</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>5,16; 13,2</t>
+          <t>5,22; 13,6</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>13,86; 49,82</t>
+          <t>13,46; 49,79</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>14,64; 41,01</t>
+          <t>15,42; 40,53</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>8,28; 36,15</t>
+          <t>7,12; 35,51</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>45,64; 273,92</t>
+          <t>45,71; 294,4</t>
         </is>
       </c>
     </row>
@@ -868,42 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 13,81</t>
+          <t>0,53; 13,45</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>9,01; 21,97</t>
+          <t>9,23; 22,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1,83; 15,53</t>
+          <t>2,01; 15,9</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>3,83; 58,6</t>
+          <t>3,64; 54,57</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>2,68; 42,66</t>
+          <t>1,32; 42,14</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>16,38; 46,36</t>
+          <t>16,61; 48,69</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>3,69; 37,96</t>
+          <t>4,06; 38,02</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>58,8; 1612,21</t>
+          <t>53,15; 1118,02</t>
         </is>
       </c>
     </row>
@@ -968,42 +968,42 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,21; 12,95</t>
+          <t>0,85; 12,64</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,51; 13,12</t>
+          <t>1,9; 13,43</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1,95; 14,16</t>
+          <t>1,88; 14,15</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,27; 3,55</t>
+          <t>-1,41; 3,42</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>3,04; 37,27</t>
+          <t>3,06; 36,63</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>2,67; 27,81</t>
+          <t>3,32; 27,94</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>4,53; 38,43</t>
+          <t>4,32; 38,93</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,19; 56,77</t>
+          <t>-16,84; 53,85</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1068,42 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>6,13; 12,35</t>
+          <t>5,88; 12,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>9,08; 15,09</t>
+          <t>9,28; 15,37</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>3,69; 10,01</t>
+          <t>3,95; 10,4</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>3,43; 24,0</t>
+          <t>3,41; 24,67</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,62; 34,79</t>
+          <t>14,98; 34,01</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>17,68; 31,63</t>
+          <t>18,16; 32,31</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>8,0; 23,76</t>
+          <t>8,82; 24,6</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>40,8; 332,44</t>
+          <t>42,17; 321,31</t>
         </is>
       </c>
     </row>
